--- a/biology/Zoologie/Bolyeriidae/Bolyeriidae.xlsx
+++ b/biology/Zoologie/Bolyeriidae/Bolyeriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bolyeriidae sont une famille de serpents. Ils sont appelés Boas de l'île Ronde.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille sont endémiques de l'île Ronde à l'île Maurice.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (29 juil. 2011)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (29 juil. 2011) :
 Bolyeria Gray, 1842
 Casarea Gray, 1842</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hoffstetter, 1946 : Remarques sur la classification des Ophidiens et particulièrement des Boides des Mascareignes (Boylerinae subfam. nov.). Bulletin du Muséum national d'Histoire naturelle, ser. 2, vol. 18, n. 1, p. 132-135.</t>
         </is>
